--- a/doc/01 需求列表/需求列表 V1.0.xlsx
+++ b/doc/01 需求列表/需求列表 V1.0.xlsx
@@ -1,344 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="14220" tabRatio="500"/>
+    <workbookView windowWidth="25500" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>需求列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>工作量</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>系统启动时显示Logo闪屏</t>
+  </si>
+  <si>
+    <t>第一次启动，在闪屏后要显示引导界面</t>
+  </si>
+  <si>
+    <t>支持图片缓存</t>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>能够按照内容、标签、老师搜索视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>能够显示轮播图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>能够显示最新视频列表</t>
+  </si>
+  <si>
+    <t>能够显示最热视频列表</t>
+  </si>
+  <si>
+    <t>能够显示关注视频列表</t>
+  </si>
+  <si>
+    <t>能够显示分类菜单按钮</t>
+  </si>
+  <si>
+    <t>点击分类按钮时，能跳转到该分类列表</t>
+  </si>
+  <si>
+    <t>列表支持上拉加载更多</t>
+  </si>
+  <si>
+    <t>点击轮播图、最热、最新、关注视频时，能跳转到播放页面</t>
   </si>
   <si>
     <t>播放页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可以播放视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持全屏播放视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示视频制作老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示视频播放次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示视频标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示、折叠视频的图文分解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持图文详情轮播查看，并可以放大，下载图片</t>
+  </si>
+  <si>
+    <t>支持下载图文到本地</t>
   </si>
   <si>
     <t>支持显示更多视频列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
   </si>
   <si>
     <t>支持显示评论列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持下载视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持下载图文到本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持收藏视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持评论视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持交作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持交作业，并支持图片放大查看</t>
   </si>
   <si>
     <t>交作业也显示在评论区，但是有交作业标注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持交作业后分享自己的作业到朋友圈、微信好友、新浪微博</t>
   </si>
   <si>
     <t>支持在查看评论时直接回到顶部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios新版本中已经删除该功能了</t>
   </si>
   <si>
     <t>支持分享视频到朋友圈、微信好友、新浪微博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表支持上拉加载更多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持交作业后分享自己的作业到朋友圈、微信好友、新浪微博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>求教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示最新一期成功的求教程视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示本期求教程结束剩余时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持上传照片求教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示本期求教程列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>求教程列表滚动时求教程按钮浮动在顶端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示本期求教程投票数排行榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持对喜欢的求教程图片进行投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持对系统的求教程图片拉票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发送到朋友圈、微信好友、新浪微博进行拉票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持举报违规的求教程图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示往期的求教程列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统启动时显示Logo闪屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次启动，在闪屏后要显示引导界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够显示最新视频列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够显示最热视频列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够显示关注视频列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够显示分类菜单按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击分类按钮时，能跳转到该分类列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击轮播图、最热、最新、关注视频时，能跳转到播放页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持图片缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持显示我的消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消息菜单显示有几条未读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持收藏主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持查看已下载视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持查看我的求教程历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持分享美甲大咖给朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持清除系统缓存
@@ -346,49 +213,170 @@
 支持查看版本信息
 支持给美甲大咖打分
 支持查看关于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,12 +385,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -425,38 +605,323 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="48">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="48">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="普通" xfId="10"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="注释" xfId="12" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
+    <cellStyle name="标题" xfId="16" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="17" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="18" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="19" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="21" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
+    <cellStyle name="输出" xfId="23" builtinId="21"/>
+    <cellStyle name="计算" xfId="24" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="25" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="26" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="27" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="28" builtinId="24"/>
+    <cellStyle name="汇总" xfId="29" builtinId="25"/>
+    <cellStyle name="好" xfId="30" builtinId="26"/>
+    <cellStyle name="适中" xfId="31" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="32" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="33" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="34" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="35" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="36" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="37" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="38" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="39" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="40" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="41" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="42" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="47" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -781,22 +1246,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" customHeight="1">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -805,7 +1271,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="25" customHeight="1">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -816,755 +1282,763 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="25" customHeight="1">
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="25" customHeight="1">
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="25" customHeight="1">
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1">
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="25" customHeight="1">
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="25" customHeight="1">
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="25" customHeight="1">
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="25" customHeight="1">
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="25" customHeight="1">
+    <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="34" customHeight="1">
+    <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="25" customHeight="1">
+    <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="25" customHeight="1">
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25" customHeight="1">
+    <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="25" customHeight="1">
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="25" customHeight="1">
+    <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="25" customHeight="1">
+    <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="25" customHeight="1">
+    <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
+      <c r="B20" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>35</v>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="25" customHeight="1">
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="25" customHeight="1">
+    <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="25" customHeight="1">
+    <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="25" customHeight="1">
+    <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="25" customHeight="1">
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="25" customHeight="1">
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="34" customHeight="1">
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="25" customHeight="1">
+    <row r="28" ht="34" customHeight="1" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="25" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="25" customHeight="1">
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="25" customHeight="1">
-      <c r="A31" s="4" t="s">
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="25" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="25" customHeight="1">
+    <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="25" customHeight="1">
+    <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="25" customHeight="1">
+    <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="25" customHeight="1">
+    <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="25" customHeight="1">
+    <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="25" customHeight="1">
+    <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="25" customHeight="1">
+    <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D39" s="4" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="25" customHeight="1">
+    <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="25" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>71</v>
-      </c>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="25" customHeight="1">
-      <c r="A42" s="4"/>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="25" customHeight="1">
+    <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="25" customHeight="1">
+    <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="25" customHeight="1">
+    <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="25" customHeight="1">
+    <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="75">
+    <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="25" customHeight="1">
+    <row r="48" ht="71.25" spans="1:5">
       <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="25" customHeight="1">
+    <row r="49" customHeight="1" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="25" customHeight="1">
+    <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="25" customHeight="1">
+    <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="25" customHeight="1">
+    <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="25" customHeight="1">
+    <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="25" customHeight="1">
+    <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="25" customHeight="1">
+    <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="25" customHeight="1">
+    <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="25" customHeight="1">
+    <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="25" customHeight="1">
+    <row r="58" customHeight="1" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="25" customHeight="1">
+    <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="25" customHeight="1">
+    <row r="60" customHeight="1" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="25" customHeight="1">
+    <row r="61" customHeight="1" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="25" customHeight="1">
+    <row r="62" customHeight="1" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" ht="25" customHeight="1">
+    <row r="63" customHeight="1" spans="1:5">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" ht="25" customHeight="1">
+    <row r="64" customHeight="1" spans="1:5">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="25" customHeight="1">
+    <row r="65" customHeight="1" spans="1:5">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" ht="25" customHeight="1">
+    <row r="66" customHeight="1" spans="1:5">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="25" customHeight="1">
+    <row r="67" customHeight="1" spans="1:5">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" ht="25" customHeight="1">
+    <row r="68" customHeight="1" spans="1:5">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="25" customHeight="1">
+    <row r="69" customHeight="1" spans="1:5">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" ht="25" customHeight="1">
+    <row r="70" customHeight="1" spans="1:5">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" ht="25" customHeight="1">
+    <row r="71" customHeight="1" spans="1:5">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5" ht="25" customHeight="1">
+    <row r="72" customHeight="1" spans="1:5">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" ht="25" customHeight="1">
+    <row r="73" customHeight="1" spans="1:5">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" ht="25" customHeight="1">
+    <row r="74" customHeight="1" spans="1:5">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" ht="25" customHeight="1">
+    <row r="75" customHeight="1" spans="1:5">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" ht="25" customHeight="1">
+    <row r="76" customHeight="1" spans="1:5">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" ht="25" customHeight="1">
+    <row r="77" customHeight="1" spans="1:5">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" ht="25" customHeight="1">
+    <row r="78" customHeight="1" spans="1:5">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" ht="25" customHeight="1">
+    <row r="79" customHeight="1" spans="1:5">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" ht="25" customHeight="1">
+    <row r="80" customHeight="1" spans="1:5">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5" ht="25" customHeight="1">
+    <row r="81" customHeight="1" spans="1:5">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5" ht="25" customHeight="1">
+    <row r="82" customHeight="1" spans="1:5">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
+    <row r="83" customHeight="1" spans="1:5">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/01 需求列表/需求列表 V1.0.xlsx
+++ b/doc/01 需求列表/需求列表 V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25500" windowHeight="12340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>需求列表</t>
   </si>
@@ -84,154 +84,231 @@
     <t>列表支持上拉加载更多</t>
   </si>
   <si>
+    <t>播放页面</t>
+  </si>
+  <si>
+    <t>可以播放视频</t>
+  </si>
+  <si>
+    <t>支持显示、折叠视频的图文分解</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>支持收藏视频</t>
+  </si>
+  <si>
+    <t>交作业也显示在评论区，但是有交作业标注</t>
+  </si>
+  <si>
+    <t>支持交作业后分享自己的作业到朋友圈、微信好友、新浪微博</t>
+  </si>
+  <si>
+    <t>支持在查看评论时直接回到顶部</t>
+  </si>
+  <si>
+    <t>ios新版本中已经删除该功能了</t>
+  </si>
+  <si>
+    <t>支持分享视频到朋友圈、微信好友、新浪微博</t>
+  </si>
+  <si>
+    <t>求教程</t>
+  </si>
+  <si>
+    <t>支持显示本期求教程结束剩余时间</t>
+  </si>
+  <si>
+    <t>支持显示本期求教程列表</t>
+  </si>
+  <si>
+    <t>发送到朋友圈、微信好友、新浪微博进行拉票</t>
+  </si>
+  <si>
+    <t>支持举报违规的求教程图片</t>
+  </si>
+  <si>
+    <t>支持显示往期的求教程列表</t>
+  </si>
+  <si>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>我的首页</t>
+  </si>
+  <si>
+    <t>消息菜单显示有几条未读</t>
+  </si>
+  <si>
+    <t>支持查看我的求教程历史</t>
+  </si>
+  <si>
+    <t>支持分享美甲大咖给朋友</t>
+  </si>
+  <si>
+    <t>支持设置</t>
+  </si>
+  <si>
+    <t>支持用户进行登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收藏主题</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持显示我的消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>点击轮播图、最热、最新、关注视频时，能跳转到播放页面</t>
-  </si>
-  <si>
-    <t>播放页面</t>
-  </si>
-  <si>
-    <t>可以播放视频</t>
-  </si>
-  <si>
-    <t>支持全屏播放视频</t>
-  </si>
-  <si>
-    <t>支持显示视频制作老师</t>
-  </si>
-  <si>
-    <t>支持显示视频播放次数</t>
-  </si>
-  <si>
-    <t>支持显示视频标签</t>
-  </si>
-  <si>
-    <t>支持显示、折叠视频的图文分解</t>
-  </si>
-  <si>
-    <t>支持图文详情轮播查看，并可以放大，下载图片</t>
-  </si>
-  <si>
-    <t>支持下载图文到本地</t>
-  </si>
-  <si>
-    <t>支持显示更多视频列表</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>支持显示评论列表</t>
-  </si>
-  <si>
-    <t>支持下载视频</t>
-  </si>
-  <si>
-    <t>支持收藏视频</t>
-  </si>
-  <si>
-    <t>支持评论视频</t>
-  </si>
-  <si>
-    <t>支持交作业，并支持图片放大查看</t>
-  </si>
-  <si>
-    <t>交作业也显示在评论区，但是有交作业标注</t>
-  </si>
-  <si>
-    <t>支持交作业后分享自己的作业到朋友圈、微信好友、新浪微博</t>
-  </si>
-  <si>
-    <t>支持在查看评论时直接回到顶部</t>
-  </si>
-  <si>
-    <t>ios新版本中已经删除该功能了</t>
-  </si>
-  <si>
-    <t>支持分享视频到朋友圈、微信好友、新浪微博</t>
-  </si>
-  <si>
-    <t>支持缓存</t>
-  </si>
-  <si>
-    <t>求教程</t>
-  </si>
-  <si>
-    <t>支持显示最新一期成功的求教程视频</t>
-  </si>
-  <si>
-    <t>支持显示本期求教程结束剩余时间</t>
-  </si>
-  <si>
-    <t>支持上传照片求教程</t>
-  </si>
-  <si>
-    <t>支持显示本期求教程列表</t>
-  </si>
-  <si>
-    <t>求教程列表滚动时求教程按钮浮动在顶端</t>
-  </si>
-  <si>
-    <t>支持显示本期求教程投票数排行榜</t>
-  </si>
-  <si>
-    <t>支持对喜欢的求教程图片进行投票</t>
-  </si>
-  <si>
-    <t>支持对系统的求教程图片拉票</t>
-  </si>
-  <si>
-    <t>发送到朋友圈、微信好友、新浪微博进行拉票</t>
-  </si>
-  <si>
-    <t>支持举报违规的求教程图片</t>
-  </si>
-  <si>
-    <t>支持显示往期的求教程列表</t>
-  </si>
-  <si>
-    <t>我的</t>
-  </si>
-  <si>
-    <t>我的首页</t>
-  </si>
-  <si>
-    <t>支持显示我的消息</t>
-  </si>
-  <si>
-    <t>消息菜单显示有几条未读</t>
-  </si>
-  <si>
-    <t>支持收藏主题</t>
-  </si>
-  <si>
-    <t>支持查看已下载视频</t>
-  </si>
-  <si>
-    <t>支持查看我的求教程历史</t>
-  </si>
-  <si>
-    <t>支持分享美甲大咖给朋友</t>
-  </si>
-  <si>
-    <t>支持设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>支持清除系统缓存
 支持设置非wifi是否允许收看和下载视频
+支持设置视频下载目录
 支持查看版本信息
-支持给美甲大咖打分
-支持查看关于</t>
-  </si>
-  <si>
-    <t>支持用户进行登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+支持查看关于
+退出登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持显示最新一期成功的求教程视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持上传照片求教程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>求教程列表滚动时求教程按钮浮动在顶端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持显示本期求教程投票数排行榜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持对喜欢的求教程图片进行投票</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持对系统的求教程图片拉票</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持查看已下载视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持全屏播放视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持显示视频制作老师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持显示视频播放次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持显示视频标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持图文详情轮播查看，并可以放大，下载图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持显示更多视频列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持显示评论列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持评论视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持交作业，并支持图片放大查看</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支持缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前15秒</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频详情缓存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持下载图文到本地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持下载视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +339,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -283,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -306,37 +391,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,28 +808,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -720,7 +857,9 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
       <c r="A4" s="3"/>
@@ -729,7 +868,9 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
       <c r="A5" s="3"/>
@@ -738,7 +879,9 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -751,7 +894,9 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
       <c r="A7" s="3"/>
@@ -762,7 +907,9 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
       <c r="A8" s="3"/>
@@ -773,7 +920,9 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
       <c r="A9" s="3"/>
@@ -782,7 +931,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
       <c r="A10" s="3"/>
@@ -791,7 +940,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
       <c r="A11" s="3"/>
@@ -802,7 +951,9 @@
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
       <c r="A12" s="3"/>
@@ -815,122 +966,144 @@
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="34" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
+      <c r="B16" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="25" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
+      <c r="B17" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="25" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="25" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
+      <c r="B20" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="25" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
+      <c r="B21" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="25" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
+      <c r="B22" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="25" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>33</v>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>20</v>
@@ -938,305 +1111,359 @@
       <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="25" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>34</v>
+      <c r="B24" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="25" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="25" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
+      <c r="B26" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="25" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
+      <c r="B27" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="34" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="13" customFormat="1" ht="34" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="25" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="25" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+    <row r="30" spans="1:5" s="13" customFormat="1" ht="25" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" ht="25" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>43</v>
+      <c r="B31" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="25" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
+      <c r="A32" s="3"/>
+      <c r="B32" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="25" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>46</v>
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="25" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="25" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
+      <c r="B35" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="25" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="25" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>50</v>
+      <c r="B37" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="25" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>51</v>
+      <c r="B38" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="25" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="25" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="25" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="25" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="25" customHeight="1">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="25" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="B44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="25" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>61</v>
+      <c r="B45" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="25" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>62</v>
+      <c r="B46" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="25" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="75">
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="25" customHeight="1">
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="105">
       <c r="A49" s="3"/>
-      <c r="B49" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="25" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="25" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="25" customHeight="1">
       <c r="A52" s="3"/>
@@ -1462,11 +1689,20 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
+    <row r="84" spans="1:5" ht="25" customHeight="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E38:E39"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
